--- a/testData/WebForm/TC023_WF_RRY_OneN_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC023_WF_RRY_OneN_TwoYN_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -285,19 +285,10 @@
     <t>9840090747</t>
   </si>
   <si>
-    <t>9840096295</t>
-  </si>
-  <si>
     <t>9840024024</t>
   </si>
   <si>
-    <t>9840014486</t>
-  </si>
-  <si>
     <t>9840081809</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>9840099629</t>
@@ -310,7 +301,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,92 +689,92 @@
   <dimension ref="A1:BG10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="O2" sqref="O2:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.36328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" customWidth="1"/>
+    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.54296875" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.6328125" customWidth="1"/>
+    <col min="34" max="35" width="15.26953125" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.81640625" customWidth="1"/>
+    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="15.26953125" customWidth="1"/>
+    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.453125" customWidth="1"/>
+    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="54" width="11.453125" customWidth="1"/>
+    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -793,139 +783,139 @@
       <c r="N1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" t="s">
         <v>65</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" t="s">
         <v>66</v>
       </c>
-      <c r="AO1" t="s" s="0">
+      <c r="AO1" t="s">
         <v>49</v>
       </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AP1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" t="s">
         <v>26</v>
       </c>
-      <c r="AR1" t="s" s="0">
+      <c r="AR1" t="s">
         <v>27</v>
       </c>
-      <c r="AS1" t="s" s="0">
+      <c r="AS1" t="s">
         <v>60</v>
       </c>
-      <c r="AT1" t="s" s="0">
+      <c r="AT1" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" t="s" s="0">
+      <c r="AU1" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" t="s" s="0">
+      <c r="AV1" t="s">
         <v>61</v>
       </c>
-      <c r="AW1" t="s" s="0">
+      <c r="AW1" t="s">
         <v>26</v>
       </c>
-      <c r="AX1" t="s" s="0">
+      <c r="AX1" t="s">
         <v>27</v>
       </c>
-      <c r="AY1" t="s" s="0">
+      <c r="AY1" t="s">
         <v>62</v>
       </c>
-      <c r="AZ1" t="s" s="0">
+      <c r="AZ1" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" t="s" s="0">
+      <c r="BA1" t="s">
         <v>27</v>
       </c>
-      <c r="BB1" t="s" s="0">
+      <c r="BB1" t="s">
         <v>63</v>
       </c>
-      <c r="BC1" t="s" s="0">
+      <c r="BC1" t="s">
         <v>26</v>
       </c>
-      <c r="BD1" t="s" s="0">
+      <c r="BD1" t="s">
         <v>27</v>
       </c>
-      <c r="BE1" t="s" s="0">
+      <c r="BE1" t="s">
         <v>64</v>
       </c>
-      <c r="BF1" t="s" s="0">
+      <c r="BF1" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" t="s" s="0">
+      <c r="BG1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -939,31 +929,31 @@
       <c r="C2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -972,43 +962,43 @@
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s" s="0">
-        <v>48</v>
+      <c r="O2" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="Q2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="R2" t="s">
         <v>48</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="T2" t="s" s="0">
+      <c r="T2" t="s">
         <v>17</v>
       </c>
-      <c r="U2" t="s" s="0">
+      <c r="U2" t="s">
         <v>48</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="W2" t="s" s="0">
+      <c r="W2" t="s">
         <v>17</v>
       </c>
-      <c r="X2" t="s" s="0">
+      <c r="X2" t="s">
         <v>48</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="Z2" t="s" s="0">
+      <c r="Z2" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" t="s" s="0">
+      <c r="AA2" t="s">
         <v>48</v>
       </c>
       <c r="AB2" s="6" t="s">
@@ -1038,20 +1028,20 @@
       <c r="AJ2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" t="s" s="0">
+      <c r="AK2" t="s">
         <v>29</v>
       </c>
       <c r="AL2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AM2" t="s" s="0">
+      <c r="AM2" t="s">
         <v>57</v>
       </c>
-      <c r="AN2" t="s" s="0">
+      <c r="AN2" t="s">
         <v>57</v>
       </c>
-      <c r="AO2" t="s" s="0">
-        <v>94</v>
+      <c r="AO2" t="s">
+        <v>91</v>
       </c>
       <c r="AP2" s="6" t="s">
         <v>68</v>
@@ -1112,28 +1102,28 @@
       <c r="C3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>91</v>
+      <c r="F3" t="s">
+        <v>89</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1159,28 +1149,28 @@
       <c r="C4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>55</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1192,8 +1182,8 @@
       <c r="N4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="s" s="0">
-        <v>48</v>
+      <c r="O4" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.35">
@@ -1206,28 +1196,28 @@
       <c r="C5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>93</v>
+      <c r="F5" t="s">
+        <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>55</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1254,31 +1244,31 @@
       <c r="C6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>71</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>55</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>41</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1287,8 +1277,8 @@
       <c r="N6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s" s="0">
-        <v>48</v>
+      <c r="O6" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.35">
@@ -1301,13 +1291,13 @@
       <c r="C7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>81</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1316,16 +1306,16 @@
       <c r="H7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1334,8 +1324,8 @@
       <c r="N7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O7" t="s" s="0">
-        <v>48</v>
+      <c r="O7" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.35">
@@ -1348,31 +1338,31 @@
       <c r="C8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>39</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1381,8 +1371,8 @@
       <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s" s="0">
-        <v>48</v>
+      <c r="O8" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.35">
@@ -1395,31 +1385,31 @@
       <c r="C9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>89</v>
+      <c r="F9" t="s">
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>70</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1428,8 +1418,8 @@
       <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" t="s" s="0">
-        <v>48</v>
+      <c r="O9" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.35">
@@ -1442,31 +1432,31 @@
       <c r="C10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>82</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>55</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1475,8 +1465,8 @@
       <c r="N10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O10" t="s" s="0">
-        <v>48</v>
+      <c r="O10" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC023_WF_RRY_OneN_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC023_WF_RRY_OneN_TwoYN_Test.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="103">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -228,18 +228,9 @@
     <t>Angela</t>
   </si>
   <si>
-    <t>9840054673</t>
-  </si>
-  <si>
     <t>four</t>
   </si>
   <si>
-    <t>9840045150</t>
-  </si>
-  <si>
-    <t>9840075094</t>
-  </si>
-  <si>
     <t>Sandra</t>
   </si>
   <si>
@@ -264,12 +255,6 @@
     <t>Betty</t>
   </si>
   <si>
-    <t>9840055147</t>
-  </si>
-  <si>
-    <t>9840075541</t>
-  </si>
-  <si>
     <t>Kimberly</t>
   </si>
   <si>
@@ -282,26 +267,75 @@
     <t>WF_RRY_OneN_TwoYN_Test</t>
   </si>
   <si>
-    <t>9840090747</t>
-  </si>
-  <si>
-    <t>9840024024</t>
-  </si>
-  <si>
-    <t>9840081809</t>
-  </si>
-  <si>
-    <t>9840099629</t>
+    <t>9840026576</t>
+  </si>
+  <si>
+    <t>9840094113</t>
+  </si>
+  <si>
+    <t>9840079455</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9840092338</t>
+  </si>
+  <si>
+    <t>9840043390</t>
+  </si>
+  <si>
+    <t>9840095502</t>
+  </si>
+  <si>
+    <t>9840018007</t>
+  </si>
+  <si>
+    <t>9840068403</t>
+  </si>
+  <si>
+    <t>9840047309</t>
+  </si>
+  <si>
+    <t>9840012009</t>
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>9840040025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9840072939</t>
+  </si>
+  <si>
+    <t>9840043664</t>
+  </si>
+  <si>
+    <t>9840092991</t>
+  </si>
+  <si>
+    <t>9840010801</t>
+  </si>
+  <si>
+    <t>9840026850</t>
+  </si>
+  <si>
+    <t>9840010124</t>
+  </si>
+  <si>
+    <t>9840044904</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,13 +361,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -393,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -404,7 +431,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -688,93 +714,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O10"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" customWidth="1"/>
-    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.6328125" customWidth="1"/>
-    <col min="34" max="35" width="15.26953125" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" customWidth="1"/>
-    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="15.26953125" customWidth="1"/>
-    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="11.453125" customWidth="1"/>
-    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="54" width="11.453125" customWidth="1"/>
-    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="42" max="43" customWidth="true" width="15.28515625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="45" max="46" customWidth="true" width="11.42578125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="48" max="54" customWidth="true" width="11.42578125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -783,143 +809,143 @@
       <c r="N1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -927,33 +953,33 @@
         <v>21</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>87</v>
+      <c r="F2" t="s" s="0">
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -962,47 +988,47 @@
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="P2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="U2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Z2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="8" t="s">
+      <c r="AA2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="T2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="W2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>48</v>
@@ -1020,7 +1046,7 @@
         <v>48</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI2" s="4" t="s">
         <v>48</v>
@@ -1028,20 +1054,20 @@
       <c r="AJ2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" t="s" s="0">
         <v>29</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AN2" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="AO2" t="s" s="0">
         <v>57</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>91</v>
       </c>
       <c r="AP2" s="6" t="s">
         <v>68</v>
@@ -1053,7 +1079,7 @@
         <v>48</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AT2" s="4" t="s">
         <v>17</v>
@@ -1062,16 +1088,16 @@
         <v>48</v>
       </c>
       <c r="AV2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY2" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>17</v>
@@ -1080,7 +1106,7 @@
         <v>48</v>
       </c>
       <c r="BB2" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="BC2" s="4" t="s">
         <v>48</v>
@@ -1092,7 +1118,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1100,30 +1126,30 @@
         <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>89</v>
+      <c r="F3" t="s" s="0">
+        <v>94</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1135,11 +1161,11 @@
       <c r="N3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,30 +1173,30 @@
         <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>72</v>
+      <c r="F4" t="s" s="0">
+        <v>96</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1182,11 +1208,11 @@
       <c r="N4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1194,30 +1220,30 @@
         <v>21</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>90</v>
+      <c r="F5" t="s" s="0">
+        <v>97</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1229,12 +1255,12 @@
       <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1242,33 +1268,33 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>71</v>
+      <c r="F6" t="s" s="0">
+        <v>98</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1277,11 +1303,11 @@
       <c r="N6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,16 +1315,16 @@
         <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>81</v>
+      <c r="F7" t="s" s="0">
+        <v>99</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1306,16 +1332,16 @@
       <c r="H7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1324,11 +1350,11 @@
       <c r="N7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,33 +1362,33 @@
         <v>21</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>69</v>
+      <c r="F8" t="s" s="0">
+        <v>100</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1371,11 +1397,11 @@
       <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1383,34 +1409,34 @@
         <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>88</v>
+      <c r="F9" t="s" s="0">
+        <v>101</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
-        <v>70</v>
+      <c r="L9" t="s" s="0">
+        <v>69</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>44</v>
@@ -1418,11 +1444,11 @@
       <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1430,33 +1456,33 @@
         <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>82</v>
+      <c r="F10" t="s" s="0">
+        <v>102</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1465,7 +1491,7 @@
       <c r="N10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="4" t="s">
         <v>17</v>
       </c>
     </row>

--- a/testData/WebForm/TC023_WF_RRY_OneN_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC023_WF_RRY_OneN_TwoYN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="112">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -328,6 +328,33 @@
   </si>
   <si>
     <t>9840044904</t>
+  </si>
+  <si>
+    <t>9840089618</t>
+  </si>
+  <si>
+    <t>9840036240</t>
+  </si>
+  <si>
+    <t>9840055836</t>
+  </si>
+  <si>
+    <t>9840002693</t>
+  </si>
+  <si>
+    <t>9840016411</t>
+  </si>
+  <si>
+    <t>9840096762</t>
+  </si>
+  <si>
+    <t>9840065705</t>
+  </si>
+  <si>
+    <t>9840001570</t>
+  </si>
+  <si>
+    <t>9840098669</t>
   </si>
 </sst>
 </file>
@@ -962,7 +989,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1067,7 +1094,7 @@
         <v>93</v>
       </c>
       <c r="AO2" t="s" s="0">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AP2" s="6" t="s">
         <v>68</v>
@@ -1135,7 +1162,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1182,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1229,7 +1256,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1277,7 +1304,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1324,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1371,7 +1398,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1418,7 +1445,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1465,7 +1492,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC023_WF_RRY_OneN_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC023_WF_RRY_OneN_TwoYN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="98">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -267,94 +267,52 @@
     <t>WF_RRY_OneN_TwoYN_Test</t>
   </si>
   <si>
-    <t>9840026576</t>
-  </si>
-  <si>
-    <t>9840094113</t>
-  </si>
-  <si>
-    <t>9840079455</t>
+    <t>9840089618</t>
+  </si>
+  <si>
+    <t>9840055836</t>
+  </si>
+  <si>
+    <t>9840002693</t>
+  </si>
+  <si>
+    <t>9840016411</t>
+  </si>
+  <si>
+    <t>9840065705</t>
+  </si>
+  <si>
+    <t>9840001570</t>
+  </si>
+  <si>
+    <t>9840098669</t>
+  </si>
+  <si>
+    <t>9840048258</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>9840092338</t>
-  </si>
-  <si>
-    <t>9840043390</t>
-  </si>
-  <si>
-    <t>9840095502</t>
-  </si>
-  <si>
-    <t>9840018007</t>
-  </si>
-  <si>
-    <t>9840068403</t>
-  </si>
-  <si>
-    <t>9840047309</t>
-  </si>
-  <si>
-    <t>9840012009</t>
+    <t>9840084565</t>
+  </si>
+  <si>
+    <t>9840014591</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>9840040025</t>
+    <t>9840080134</t>
+  </si>
+  <si>
+    <t>9840091683</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>9840072939</t>
-  </si>
-  <si>
-    <t>9840043664</t>
-  </si>
-  <si>
-    <t>9840092991</t>
-  </si>
-  <si>
-    <t>9840010801</t>
-  </si>
-  <si>
-    <t>9840026850</t>
-  </si>
-  <si>
-    <t>9840010124</t>
-  </si>
-  <si>
-    <t>9840044904</t>
-  </si>
-  <si>
-    <t>9840089618</t>
-  </si>
-  <si>
-    <t>9840036240</t>
-  </si>
-  <si>
-    <t>9840055836</t>
-  </si>
-  <si>
-    <t>9840002693</t>
-  </si>
-  <si>
-    <t>9840016411</t>
-  </si>
-  <si>
-    <t>9840096762</t>
-  </si>
-  <si>
-    <t>9840065705</t>
-  </si>
-  <si>
-    <t>9840001570</t>
-  </si>
-  <si>
-    <t>9840098669</t>
+    <t>9840016550</t>
   </si>
 </sst>
 </file>
@@ -741,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +947,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1016,7 +974,7 @@
         <v>51</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>70</v>
@@ -1091,10 +1049,10 @@
         <v>57</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="AO2" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AP2" s="6" t="s">
         <v>68</v>
@@ -1162,7 +1120,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1209,7 +1167,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1236,7 +1194,7 @@
         <v>51</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
@@ -1256,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1283,7 +1241,7 @@
         <v>45</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
@@ -1304,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1331,7 +1289,7 @@
         <v>52</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -1351,7 +1309,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1398,7 +1356,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1425,7 +1383,7 @@
         <v>52</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
@@ -1445,7 +1403,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1472,7 +1430,7 @@
         <v>45</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
@@ -1492,7 +1450,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1519,7 +1477,7 @@
         <v>45</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
